--- a/マッピング.xlsx
+++ b/マッピング.xlsx
@@ -1,40 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\uemura.masaru\git\map_terms_azure_to_aws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF6B9D0-6C67-4064-8127-FF1A5B2CDA6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648F41FC-8718-47E8-A0F1-8D947E58627E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6495" yWindow="1155" windowWidth="25110" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34125" yWindow="-15" windowWidth="22605" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$D$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$D$124</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="298">
   <si>
     <t>AWS サービス</t>
   </si>
@@ -57,9 +51,6 @@
     <t>SageMaker</t>
   </si>
   <si>
-    <t>Azure Machine Learning</t>
-  </si>
-  <si>
     <t>機械学習モデルをトレーニング、デプロイ、自動化、および管理するためのクラウド サービス。</t>
   </si>
   <si>
@@ -69,9 +60,6 @@
     <t>Alexa Skills Kit</t>
   </si>
   <si>
-    <t>Microsoft Bot Framework</t>
-  </si>
-  <si>
     <t>テキスト/SMS、Skype、Teams、Slack、Office 365 メール、Twitter などの一般的なサービスを使用してユーザーと対話するインテリジェント ボットを構築して接続します。</t>
   </si>
   <si>
@@ -108,18 +96,12 @@
     <t>Redshift</t>
   </si>
   <si>
-    <t>Azure Synapse Analytics</t>
-  </si>
-  <si>
     <t>超並列処理 (MPP) を使用して、ペタバイト単位のデータに対して複雑なクエリを短時間で実行するクラウドベースのエンタープライズ データ ウェアハウス。</t>
   </si>
   <si>
     <t>EMR</t>
   </si>
   <si>
-    <t>Azure Databricks</t>
-  </si>
-  <si>
     <t>Apache Spark ベースの分析プラットフォーム。</t>
   </si>
   <si>
@@ -186,9 +168,6 @@
     <t>データベースの分析に標準の SQL を使用する、サーバーレスの対話型クエリ サービスを提供します。</t>
   </si>
   <si>
-    <t>Azure Virtual Machines</t>
-  </si>
-  <si>
     <t>仮想サーバーにより、ユーザーは OS やサーバー ソフトウェアをデプロイ、管理、および保守できます。 インスタンスの種類によって、CPU/RAM の組み合わせが提供されます。 ユーザーは、サイズを変更する柔軟性により使用した分に対して支払います。</t>
   </si>
   <si>
@@ -213,9 +192,6 @@
     <t>VMware Cloud on AWS</t>
   </si>
   <si>
-    <t>Azure VMware by CloudSimple</t>
-  </si>
-  <si>
     <t>Azure VMware Solution by CloudSimple を使用して、VMware ベースのエンタープライズ ワークロードを Azure に再デプロイして拡張します。 使い慣れた VMware ツールを引き続き使用して、Azure でワークロードを管理します。ネットワーク、セキュリティ、データ保護ポリシーが損なわれることはありません。</t>
   </si>
   <si>
@@ -228,9 +204,6 @@
     <t>Elastic Container Registry</t>
   </si>
   <si>
-    <t>Azure Container Registry</t>
-  </si>
-  <si>
     <t>顧客が Docker で書式設定されたイメージを格納できるようにします。 Azure 上ですべての種類のコンテナー デプロイを作成するために使用されます。</t>
   </si>
   <si>
@@ -261,27 +234,12 @@
     <t>SQL Database</t>
   </si>
   <si>
-    <t>Azure Database for MySQL</t>
-  </si>
-  <si>
-    <t>Azure Database for PostgreSQL</t>
-  </si>
-  <si>
-    <t>Azure Cosmos DB</t>
-  </si>
-  <si>
     <t>ElastiCache</t>
   </si>
   <si>
-    <t>Azure Cache for Redis</t>
-  </si>
-  <si>
     <t>AWS Database Migration Service</t>
   </si>
   <si>
-    <t>Azure Database Migration Service</t>
-  </si>
-  <si>
     <t>CloudWatch、AWS X-Ray</t>
   </si>
   <si>
@@ -291,18 +249,12 @@
     <t>クラウドおよびオンプレミス環境からテレメトリを収集、分析、操作するための包括的なソリューションです。</t>
   </si>
   <si>
-    <t>Azure DevOps</t>
-  </si>
-  <si>
     <t>コード開発での共同作業用のクラウド サービス。</t>
   </si>
   <si>
     <t>AWS 開発者ツール</t>
   </si>
   <si>
-    <t>Azure 開発者ツール</t>
-  </si>
-  <si>
     <t>マルチプラットフォームでスケーラブルなアプリおよびサービスをビルド、デバッグ、デプロイ、診断、および管理するためのツールのコレクション。</t>
   </si>
   <si>
@@ -315,12 +267,6 @@
     <t>コマンド ライン インターフェイス</t>
   </si>
   <si>
-    <t>Azure CLI</t>
-  </si>
-  <si>
-    <t>Azure PowerShell</t>
-  </si>
-  <si>
     <t>すべてのクラウド サービスにわたってネイティブな REST API の上にビルドされたプログラミング言語固有のさまざまなラッパーが、ソリューションを作成するためのより容易な方法を提供します。</t>
   </si>
   <si>
@@ -336,9 +282,6 @@
     <t>CloudFormation</t>
   </si>
   <si>
-    <t>Azure Resource Manager</t>
-  </si>
-  <si>
     <t>VM 拡張機能</t>
   </si>
   <si>
@@ -348,18 +291,12 @@
     <t>AWS IoT</t>
   </si>
   <si>
-    <t>Azure IoT Hub</t>
-  </si>
-  <si>
     <t>数十億台の IoT デバイスとの双方向通信を安全かつ大規模に管理するためのクラウド ゲートウェイ。</t>
   </si>
   <si>
     <t>AWS Greengrass</t>
   </si>
   <si>
-    <t>Azure IoT Edge</t>
-  </si>
-  <si>
     <t>オンプレミス シナリオで実行するためにクラウド インテリジェンスを IoT デバイス上に直接デプロイします。</t>
   </si>
   <si>
@@ -375,9 +312,6 @@
     <t>AWS IoT Things Graph</t>
   </si>
   <si>
-    <t>Azure Digital Twins</t>
-  </si>
-  <si>
     <t>Azure Digital Twins は、物理環境の包括的なモデルを作成するのに役立つ IoT サービスです。 人、場所、デバイスの間の関係と相互作用をモデル化する空間インテリジェンス グラフを作成します。 雑多なセンサーのデータではなく、物理空間のデータを照会できます。</t>
   </si>
   <si>
@@ -393,9 +327,6 @@
     <t>AWS Usage and Billing Report</t>
   </si>
   <si>
-    <t>Azure Billing API</t>
-  </si>
-  <si>
     <t>時間、組織、または製品リソース別のリソース使用の課金データを生成、監視、予測、および共有するのに役立つサービス。</t>
   </si>
   <si>
@@ -423,18 +354,12 @@
     <t>AWS Personal Health Dashboard</t>
   </si>
   <si>
-    <t>Azure Resource Health</t>
-  </si>
-  <si>
     <t>リソースの正常性に関する詳細情報と、リソースの正常性を維持するために推奨されるアクションを提供します。</t>
   </si>
   <si>
     <t>Simple Queue Service (SQS)</t>
   </si>
   <si>
-    <t>Azure Queue Storage</t>
-  </si>
-  <si>
     <t>分離されたアプリケーション コンポーネント間で通信するための管理されたメッセージ キュー サービスを提供します。</t>
   </si>
   <si>
@@ -477,15 +402,9 @@
     <t>AWS VPN Gateway</t>
   </si>
   <si>
-    <t>Azure VPN Gateway</t>
-  </si>
-  <si>
     <t>Route 53</t>
   </si>
   <si>
-    <t>Azure DNS</t>
-  </si>
-  <si>
     <t>Traffic Manager</t>
   </si>
   <si>
@@ -525,18 +444,12 @@
     <t>データのセキュリティおよび保護を提供している間、ユーザーがサービスやリソースへのアクセスを安全に制御できるようにします。 ユーザーとグループを作成および管理し、アクセス許可を使用してリソースへのアクセスを許可および拒否します。</t>
   </si>
   <si>
-    <t>Azure のロール ベースのアクセス制御</t>
-  </si>
-  <si>
     <t>ロールベースのアクセス制御 (RBAC) は、Azure のリソースにアクセスできるユーザー、そのユーザーがそれらのリソースに対して実行できること、そのユーザーがアクセスできる領域を管理するのに役立ちます。</t>
   </si>
   <si>
     <t>AWS Organizations</t>
   </si>
   <si>
-    <t>Azure サブスクリプション管理 + Azure RBAC</t>
-  </si>
-  <si>
     <t>複数のアカウントを操作するためのセキュリティ ポリシーおよびロール管理。</t>
   </si>
   <si>
@@ -627,9 +540,6 @@
     <t>GuardDuty</t>
   </si>
   <si>
-    <t>Azure Advanced Threat Protection</t>
-  </si>
-  <si>
     <t>オンプレミスとクラウドの高度な攻撃を検出して調査します。</t>
   </si>
   <si>
@@ -645,27 +555,18 @@
     <t>AWS Shield</t>
   </si>
   <si>
-    <t>Azure DDoS Protection サービス</t>
-  </si>
-  <si>
     <t>分散型サービス拒否 (DDoS) 攻撃からの保護を備えたクラウド サービスを提供します。</t>
   </si>
   <si>
     <t>Simple Storage Services (S3)</t>
   </si>
   <si>
-    <t>Azure BLOB Storage</t>
-  </si>
-  <si>
     <t>クラウド アプリケーション、コンテンツ配信、バックアップ、アーカイブ、ディザスター リカバリー、およびビッグ データ分析を含むユースケース用のオブジェクト ストレージ サービス。</t>
   </si>
   <si>
     <t>Elastic Block Store (EBS)</t>
   </si>
   <si>
-    <t>Azure マネージド ディスク</t>
-  </si>
-  <si>
     <t>I/O 集中型読み取り/書き込み操作用に最適化された SSD ストレージ。 高パフォーマンスの Azure 仮想マシン ストレージとしての使用を目的とします。</t>
   </si>
   <si>
@@ -681,18 +582,12 @@
     <t>S3 Infrequent Access (IA)</t>
   </si>
   <si>
-    <t>Azure Storage クール層</t>
-  </si>
-  <si>
     <t>クール ストレージは、アクセスされる頻度が低く、有効期間の長いデータを格納するためのより低コストの層です。</t>
   </si>
   <si>
     <t>S3 Glacier</t>
   </si>
   <si>
-    <t>Azure Storage アーカイブ アクセス層</t>
-  </si>
-  <si>
     <t>アーカイブ ストレージは、ストレージ コストが最も低く、ホット ストレージとクール ストレージに比べてデータ取得コストが高くなります。</t>
   </si>
   <si>
@@ -726,9 +621,6 @@
     <t>AWS Import/Export Snowball、Snowball Edge、Snowmobile</t>
   </si>
   <si>
-    <t>Azure Data Box</t>
-  </si>
-  <si>
     <t>セキュリティ保護されたデータ ストレージ デバイスを使用して大量のデータを Azure 間で転送する、ペタバイトからエクサバイト規模のデータ転送ソリューション。</t>
   </si>
   <si>
@@ -753,18 +645,12 @@
     <t>CloudFront</t>
   </si>
   <si>
-    <t>Azure Content Delivery Network</t>
-  </si>
-  <si>
     <t>オーディオ、ビデオ、アプリケーション、画像などのファイルを配信するグローバルなコンテンツ配信ネットワーク。</t>
   </si>
   <si>
     <t>Global Accelerator</t>
   </si>
   <si>
-    <t>Azure Front Door</t>
-  </si>
-  <si>
     <t>HTTP 負荷分散とパス ベースのルーティング規則を使って、分散マイクロサービス アーキテクチャを単一のグローバル アプリケーションに簡単に結合することができます。 API で駆動するグローバル アクションと、Azure やその他あらゆる環境に存在するバックエンド マイクロサービスへの独立したフォールト トレランスによって、新しいリージョンの追加やスケールアウトを自動化できます。</t>
   </si>
   <si>
@@ -849,19 +735,368 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Azure Container Instances</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Azure Kubernetes Service</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Language Understanding</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Azure Machine Learning Studio</t>
+    <t>Machine Learning</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bot Framework</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮想アシスタント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Machine Learning Studio</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Synapse Analytics</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ビッグ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>データを共有するためのシンプルで安全なサービス</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Data Share</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lake Formation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Databricks</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Data Lake Storage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cosmos DB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Table Storage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DynamoDB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cognitive Search</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CloudSearch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Virtual Machines</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VMware by CloudSimple</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CycleCloud</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Parallel Cluster</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>あらゆる規模の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> HPC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>クラスターやビッグ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>コンピューティング</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>クラスターを作成、管理、運用、最適化</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Container Instances</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Container Registry</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Kubernetes Service</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Database for MySQL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Database for PostgreSQL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Database Migration Service</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cache for Redis</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DevOps</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発者ツール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Automation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Resource Manager</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IoT Hub</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IoT Edge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Digital Twins</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Billing API</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Queue Storage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Resource Health</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VPN Gateway</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DNS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロール ベースのアクセス制御</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サブスクリプション管理 + Azure RBAC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Advanced Threat Protection</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DDoS Protection サービス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BLOB Storage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マネージド ディスク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Storage クール層</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Storage アーカイブ アクセス層</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Data Box</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Content Delivery Network</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Front Door</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DataSync</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>File Sync</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS Shield</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Azure DDoS Protection</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS Transit Gateway Network Manager</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Network Watcher</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Amazon Pinpoint</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Notification Hubs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮想ネットワーク</t>
+    <rPh sb="0" eb="2">
+      <t>カソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CloudWatch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Application Insights</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cost Explorer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cost Management</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CLI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PowerShell</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CosmosDB</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -869,7 +1104,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -898,6 +1133,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -920,7 +1169,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -936,6 +1185,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1218,10 +1470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:E122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1229,12 +1481,12 @@
     <col min="1" max="1" width="3.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="36.25" style="3" customWidth="1"/>
     <col min="3" max="3" width="57" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="33.375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
@@ -1248,7 +1500,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
@@ -1256,1514 +1508,1692 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="9" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="B4" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D4" s="5"/>
       <c r="E4" t="str">
-        <f>"{'azure' : '"&amp;C4&amp;"','aws':'" &amp; B4 &amp; "'},"</f>
-        <v>{'azure' : 'Azure Marketplace','aws':'AWS Marketplace'},</v>
+        <f t="shared" ref="E4:E5" si="0">"{'azure' : '"&amp;C4&amp;"','aws':'" &amp; B4 &amp; "'},"</f>
+        <v>{'azure' : 'Application Insights','aws':'CloudWatch'},</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="B5" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D5" s="5"/>
       <c r="E5" t="str">
-        <f t="shared" ref="E5:E68" si="0">"{'azure' : '"&amp;C5&amp;"','aws':'" &amp; B5 &amp; "'},"</f>
-        <v>{'azure' : 'Azure Machine Learning','aws':'SageMaker'},</v>
+        <f t="shared" si="0"/>
+        <v>{'azure' : 'Cost Management','aws':'Cost Explorer'},</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="B6" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D6" s="5"/>
       <c r="E6" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Azure Machine Learning Studio','aws':'SageMaker'},</v>
+        <f>"{'azure' : '"&amp;C6&amp;"','aws':'" &amp; B6 &amp; "'},"</f>
+        <v>{'azure' : 'File Sync','aws':'DataSync'},</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="6" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Microsoft Bot Framework','aws':'Alexa Skills Kit'},</v>
+        <f>"{'azure' : '"&amp;C7&amp;"','aws':'" &amp; B7 &amp; "'},"</f>
+        <v>{'azure' : 'Azure Marketplace','aws':'AWS Marketplace'},</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="6" t="s">
-        <v>13</v>
+        <v>250</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>249</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>251</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Speech Services','aws':'Amazon Lex'},</v>
+        <f>"{'azure' : '"&amp;C8&amp;"','aws':'" &amp; B8 &amp; "'},"</f>
+        <v>{'azure' : 'CycleCloud','aws':'Parallel Cluster'},</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="6" t="s">
-        <v>263</v>
+        <v>6</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>269</v>
+        <v>232</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Language Understanding','aws':'Amazon Lex'},</v>
+        <f t="shared" ref="E9:E79" si="1">"{'azure' : '"&amp;C9&amp;"','aws':'" &amp; B9 &amp; "'},"</f>
+        <v>{'azure' : 'Machine Learning','aws':'SageMaker'},</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="1" t="s">
-        <v>17</v>
+      <c r="B10" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Speech Services','aws':'Amazon Polly、Amazon Transcribe'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : 'Machine Learning Studio','aws':'SageMaker'},</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="6" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>20</v>
+        <v>233</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Cognitive Services','aws':'Amazon Rekognition'},</v>
+        <f t="shared" ref="E11" si="2">"{'azure' : '"&amp;C11&amp;"','aws':'" &amp; B11 &amp; "'},"</f>
+        <v>{'azure' : 'Bot Framework','aws':'Alexa Skills Kit'},</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Azure 仮想アシスタント','aws':'Alexa Skills Kit'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : 'Speech Services','aws':'Amazon Lex'},</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="6" t="s">
-        <v>23</v>
+        <v>227</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Azure Synapse Analytics','aws':'Redshift'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : 'Language Understanding','aws':'Amazon Lex'},</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="6" t="s">
-        <v>26</v>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Azure Databricks','aws':'EMR'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : 'Speech Services','aws':'Amazon Polly、Amazon Transcribe'},</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="6" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>30</v>
+        <v>219</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'HDInsight','aws':'EMR'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : 'Cognitive Services','aws':'Amazon Rekognition'},</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="1" t="s">
-        <v>31</v>
+      <c r="B16" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="D16" s="7"/>
       <c r="E16" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Data Factory','aws':'データ パイプライン、AWS Glue'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : 'Cognitive Search','aws':'CloudSearch'},</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="6" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Data Catalog','aws':'AWS Glue'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : 'Azure 仮想アシスタント','aws':'Alexa Skills Kit'},</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="6" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="D18" s="1"/>
       <c r="E18" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Stream Analytics','aws':'Kinesis Analytics'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : '仮想アシスタント','aws':'Alexa Skills Kit'},</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="6" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="1"/>
+        <v>236</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="E19" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Data Lake Analytics','aws':'Kinesis Analytics'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : 'Synapse Analytics','aws':'Redshift'},</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="6" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="1"/>
+        <v>240</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="E20" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Data Lake Store','aws':'Kinesis Analytics'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : 'Databricks','aws':'EMR'},</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="6" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Power BI','aws':'QuickSight'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : 'HDInsight','aws':'EMR'},</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="6" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="D22" s="1"/>
       <c r="E22" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Azure Search','aws':'CloudSearch'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : 'Data Lake Storage','aws':'EMR'},</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="6" t="s">
-        <v>47</v>
+      <c r="B23" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Azure Data Lake Analytics','aws':'Amazon Athena'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : 'Data Factory','aws':'データ パイプライン、AWS Glue'},</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="6" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Virtual Machine Scale Sets','aws':'AWS Auto Scaling'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : 'Data Catalog','aws':'AWS Glue'},</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="6" t="s">
-        <v>258</v>
+        <v>33</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Azure Virtual Machines','aws':'Elastic Compute Cloud (EC2) インスタンス'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : 'Stream Analytics','aws':'Kinesis Analytics'},</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="6" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D26" s="1"/>
       <c r="E26" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Azure Batch','aws':'AWS Batch'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : 'Data Lake Analytics','aws':'Kinesis Analytics'},</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="6" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>60</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D27" s="1"/>
       <c r="E27" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Azure VMware by CloudSimple','aws':'VMware Cloud on AWS'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : 'Data Lake Store','aws':'Kinesis Analytics'},</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="6" t="s">
-        <v>61</v>
+        <v>239</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>62</v>
+        <v>238</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>237</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Azure Container Instances','aws':'Elastic Container Service (ECS)'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : 'Data Share','aws':'Lake Formation'},</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="6" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Azure Container Registry','aws':'Elastic Container Registry'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : 'Power BI','aws':'QuickSight'},</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="6" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>268</v>
+        <v>41</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Azure Kubernetes Service','aws':'Elastic Kubernetes Service (EKS)'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : 'Azure Search','aws':'CloudSearch'},</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="6" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Service Fabric Mesh','aws':'App Mesh'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : 'Azure Data Lake Analytics','aws':'Amazon Athena'},</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="6" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Azure Functions','aws':'Lambda'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : 'Virtual Machine Scale Sets','aws':'AWS Auto Scaling'},</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>74</v>
+        <v>222</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'SQL Database','aws':'RDS'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : 'Virtual Machines','aws':'Elastic Compute Cloud (EC2) インスタンス'},</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>75</v>
+        <v>47</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Azure Database for MySQL','aws':'RDS'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : 'Azure Batch','aws':'AWS Batch'},</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>76</v>
+        <v>53</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Azure Database for PostgreSQL','aws':'RDS'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : 'VMware by CloudSimple','aws':'VMware Cloud on AWS'},</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>77</v>
+        <v>55</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Azure Cosmos DB','aws':'DynamoDB、SimpleDB、Amazon DocumentDB'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : 'Container Instances','aws':'Elastic Container Service (ECS)'},</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>79</v>
+        <v>57</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Azure Cache for Redis','aws':'ElastiCache'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : 'Container Registry','aws':'Elastic Container Registry'},</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>81</v>
+        <v>59</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Azure Database Migration Service','aws':'AWS Database Migration Service'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : 'Kubernetes Service','aws':'Elastic Kubernetes Service (EKS)'},</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="1" t="s">
-        <v>82</v>
+      <c r="B39" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E39" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Azure Monitor','aws':'CloudWatch、AWS X-Ray'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : 'Service Fabric Mesh','aws':'App Mesh'},</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="6" t="s">
-        <v>260</v>
+        <v>64</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Azure DevOps','aws':'CodeDeploy、CodeCommit、CodePipeline'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : 'Azure Functions','aws':'Lambda'},</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>89</v>
+        <v>221</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Azure 開発者ツール','aws':'AWS 開発者ツール'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : 'SQL Database','aws':'RDS'},</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>91</v>
+        <v>221</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>255</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Azure DevOps','aws':'AWS CodeBuild'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : 'Database for MySQL','aws':'RDS'},</v>
       </c>
     </row>
     <row r="43" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>95</v>
+        <v>221</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>256</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Azure CLI','aws':'コマンド ライン インターフェイス'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : 'Database for PostgreSQL','aws':'RDS'},</v>
       </c>
     </row>
     <row r="44" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D44" s="1"/>
+        <v>223</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>242</v>
+      </c>
       <c r="E44" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Azure PowerShell','aws':'コマンド ライン インターフェイス'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : 'Cosmos DB','aws':'DynamoDB、SimpleDB、Amazon DocumentDB'},</v>
       </c>
     </row>
     <row r="45" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>98</v>
+        <v>223</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>297</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Azure Automation','aws':'OpsWorks (Chef ベース)'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : 'CosmosDB','aws':'DynamoDB、SimpleDB、Amazon DocumentDB'},</v>
       </c>
     </row>
     <row r="46" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>102</v>
+        <v>244</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>243</v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Azure Resource Manager','aws':'CloudFormation'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : 'Table Storage','aws':'DynamoDB'},</v>
       </c>
     </row>
     <row r="47" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D47" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>258</v>
+      </c>
       <c r="E47" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'VM 拡張機能','aws':'CloudFormation'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : 'Cache for Redis','aws':'ElastiCache'},</v>
       </c>
     </row>
     <row r="48" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D48" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>257</v>
+      </c>
       <c r="E48" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Azure Automation','aws':'CloudFormation'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : 'Database Migration Service','aws':'AWS Database Migration Service'},</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="6" t="s">
-        <v>103</v>
+      <c r="B49" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Azure IoT Hub','aws':'AWS IoT'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : 'Azure Monitor','aws':'CloudWatch、AWS X-Ray'},</v>
       </c>
     </row>
     <row r="50" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="6" t="s">
-        <v>106</v>
+        <v>224</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>107</v>
+        <v>259</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="E50" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Azure IoT Edge','aws':'AWS Greengrass'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : 'DevOps','aws':'CodeDeploy、CodeCommit、CodePipeline'},</v>
       </c>
     </row>
     <row r="51" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="1" t="s">
-        <v>109</v>
+      <c r="B51" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>110</v>
+        <v>260</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Event Hubs','aws':'Kinesis Firehose、Kinesis Streams'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : '開発者ツール','aws':'AWS 開発者ツール'},</v>
       </c>
     </row>
     <row r="52" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="6" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>113</v>
+        <v>259</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Azure Digital Twins','aws':'AWS IoT Things Graph'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : 'DevOps','aws':'AWS CodeBuild'},</v>
       </c>
     </row>
     <row r="53" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="6" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>116</v>
+        <v>295</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="E53" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Azure Advisor','aws':'Trusted Advisor'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : 'CLI','aws':'コマンド ライン インターフェイス'},</v>
       </c>
     </row>
     <row r="54" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="6" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>120</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="D54" s="1"/>
       <c r="E54" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Azure Billing API','aws':'AWS Usage and Billing Report'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : 'PowerShell','aws':'コマンド ライン インターフェイス'},</v>
       </c>
     </row>
     <row r="55" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="6" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>122</v>
+        <v>261</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="E55" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Azure Portal','aws':'AWS Management Console'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : 'Automation','aws':'OpsWorks (Chef ベース)'},</v>
       </c>
     </row>
     <row r="56" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="6" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>125</v>
+        <v>262</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="E56" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Azure Migrate','aws':'AWS Application Discovery Service'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : 'Resource Manager','aws':'CloudFormation'},</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="6" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D57" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="D57" s="1"/>
       <c r="E57" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Azure Monitor','aws':'Amazon EC2 Systems Manager'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : 'VM 拡張機能','aws':'CloudFormation'},</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="6" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>130</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="D58" s="1"/>
       <c r="E58" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Azure Resource Health','aws':'AWS Personal Health Dashboard'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : 'Azure Automation','aws':'CloudFormation'},</v>
       </c>
     </row>
     <row r="59" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B59" s="6" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>132</v>
+        <v>263</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="E59" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Azure Queue Storage','aws':'Simple Queue Service (SQS)'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : 'IoT Hub','aws':'AWS IoT'},</v>
       </c>
     </row>
     <row r="60" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B60" s="6" t="s">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>134</v>
+        <v>264</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="E60" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Service Bus','aws':'Simple Queue Service (SQS)'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : 'IoT Edge','aws':'AWS Greengrass'},</v>
       </c>
     </row>
     <row r="61" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="6" t="s">
-        <v>136</v>
+      <c r="B61" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="E61" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Event Grid','aws':'Simple Notification Service'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : 'Event Hubs','aws':'Kinesis Firehose、Kinesis Streams'},</v>
       </c>
     </row>
     <row r="62" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B62" s="6" t="s">
-        <v>261</v>
+        <v>93</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>140</v>
+        <v>265</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="E62" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'App Center','aws':'Mobile Hub、Mobile SDK、Cognito、AWS Device Farm、Mobile Analytics'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : 'Digital Twins','aws':'AWS IoT Things Graph'},</v>
       </c>
     </row>
     <row r="63" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B63" s="6" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D63" s="1"/>
+        <v>96</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="E63" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Xamarin アプリ','aws':'Mobile Hub'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : 'Azure Advisor','aws':'Trusted Advisor'},</v>
       </c>
     </row>
     <row r="64" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B64" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>145</v>
+        <v>98</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="E64" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Virtual Network','aws':'Virtual Private Cloud (VPC)'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : 'Billing API','aws':'AWS Usage and Billing Report'},</v>
       </c>
     </row>
     <row r="65" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B65" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>147</v>
+        <v>100</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="E65" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Azure VPN Gateway','aws':'AWS VPN Gateway'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : 'Azure Portal','aws':'AWS Management Console'},</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B66" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>149</v>
+        <v>103</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="E66" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Azure DNS','aws':'Route 53'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : 'Azure Migrate','aws':'AWS Application Discovery Service'},</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B67" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>150</v>
+        <v>106</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'Traffic Manager','aws':'Route 53'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : 'Azure Monitor','aws':'Amazon EC2 Systems Manager'},</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B68" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>152</v>
+        <v>107</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="E68" t="str">
-        <f t="shared" si="0"/>
-        <v>{'azure' : 'ExpressRoute','aws':'Direct Connect'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : 'Resource Health','aws':'AWS Personal Health Dashboard'},</v>
       </c>
     </row>
     <row r="69" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B69" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>154</v>
+        <v>109</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="E69" t="str">
-        <f t="shared" ref="E69:E108" si="1">"{'azure' : '"&amp;C69&amp;"','aws':'" &amp; B69 &amp; "'},"</f>
-        <v>{'azure' : 'Load Balancer','aws':'Network Load Balancer'},</v>
+        <f t="shared" si="1"/>
+        <v>{'azure' : 'Queue Storage','aws':'Simple Queue Service (SQS)'},</v>
       </c>
     </row>
     <row r="70" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B70" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>156</v>
+        <v>109</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="E70" t="str">
         <f t="shared" si="1"/>
-        <v>{'azure' : 'Application Gateway','aws':'Application Load Balancer'},</v>
+        <v>{'azure' : 'Service Bus','aws':'Simple Queue Service (SQS)'},</v>
       </c>
     </row>
     <row r="71" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B71" s="1" t="s">
-        <v>157</v>
+      <c r="B71" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>159</v>
+        <v>114</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="E71" t="str">
         <f t="shared" si="1"/>
-        <v>{'azure' : 'PrivateLink','aws':'ネットワークの分離'},</v>
+        <v>{'azure' : 'Event Grid','aws':'Simple Notification Service'},</v>
       </c>
     </row>
     <row r="72" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B72" s="6" t="s">
-        <v>160</v>
+        <v>225</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="E72" t="str">
         <f t="shared" si="1"/>
-        <v>{'azure' : 'Azure Active Directory','aws':'Identity and Access Management (IAM)'},</v>
+        <v>{'azure' : 'App Center','aws':'Mobile Hub、Mobile SDK、Cognito、AWS Device Farm、Mobile Analytics'},</v>
       </c>
     </row>
     <row r="73" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="6" t="s">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>164</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="D73" s="1"/>
       <c r="E73" t="str">
         <f t="shared" si="1"/>
-        <v>{'azure' : 'Azure のロール ベースのアクセス制御','aws':'Identity and Access Management (IAM)'},</v>
+        <v>{'azure' : 'Xamarin アプリ','aws':'Mobile Hub'},</v>
       </c>
     </row>
     <row r="74" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>167</v>
+        <v>121</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>122</v>
       </c>
       <c r="E74" t="str">
         <f t="shared" si="1"/>
-        <v>{'azure' : 'Azure サブスクリプション管理 + Azure RBAC','aws':'AWS Organizations'},</v>
+        <v>{'azure' : 'Virtual Network','aws':'Virtual Private Cloud (VPC)'},</v>
       </c>
     </row>
     <row r="75" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>169</v>
+        <v>121</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>290</v>
       </c>
       <c r="E75" t="str">
         <f t="shared" si="1"/>
-        <v>{'azure' : 'Multi-Factor Authentication','aws':'Multi-Factor Authentication'},</v>
+        <v>{'azure' : '仮想ネットワーク','aws':'Virtual Private Cloud (VPC)'},</v>
       </c>
     </row>
     <row r="76" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>172</v>
+        <v>123</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>269</v>
       </c>
       <c r="E76" t="str">
         <f t="shared" si="1"/>
-        <v>{'azure' : 'Azure Active Directory Domain Services','aws':'AWS Directory Service'},</v>
+        <v>{'azure' : 'VPN Gateway','aws':'AWS VPN Gateway'},</v>
       </c>
     </row>
     <row r="77" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>174</v>
+        <v>124</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>270</v>
       </c>
       <c r="E77" t="str">
         <f t="shared" si="1"/>
-        <v>{'azure' : 'Azure Active Directory B2C','aws':'Cognito'},</v>
+        <v>{'azure' : 'DNS','aws':'Route 53'},</v>
       </c>
     </row>
     <row r="78" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>176</v>
+        <v>124</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="E78" t="str">
         <f t="shared" si="1"/>
-        <v>{'azure' : 'Azure Policy','aws':'AWS Organizations'},</v>
+        <v>{'azure' : 'Traffic Manager','aws':'Route 53'},</v>
       </c>
     </row>
     <row r="79" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>178</v>
+        <v>126</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>127</v>
       </c>
       <c r="E79" t="str">
         <f t="shared" si="1"/>
-        <v>{'azure' : '管理グループ','aws':'AWS Organizations'},</v>
+        <v>{'azure' : 'ExpressRoute','aws':'Direct Connect'},</v>
       </c>
     </row>
     <row r="80" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>181</v>
+        <v>128</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="E80" t="str">
-        <f t="shared" si="1"/>
-        <v>{'azure' : 'Azure Storage Service Encryption','aws':'Amazon S3 Key Management Service を使用したサーバー側の暗号化'},</v>
+        <f t="shared" ref="E80:E121" si="3">"{'azure' : '"&amp;C80&amp;"','aws':'" &amp; B80 &amp; "'},"</f>
+        <v>{'azure' : 'Load Balancer','aws':'Network Load Balancer'},</v>
       </c>
     </row>
     <row r="81" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>184</v>
+      <c r="B81" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="E81" t="str">
-        <f t="shared" si="1"/>
-        <v>{'azure' : 'Key Vault','aws':'キー管理サービス (KMS)、CloudHSM'},</v>
+        <f t="shared" si="3"/>
+        <v>{'azure' : 'Application Gateway','aws':'Application Load Balancer'},</v>
       </c>
     </row>
     <row r="82" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B82" s="6" t="s">
-        <v>185</v>
+      <c r="B82" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>187</v>
+        <v>133</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="E82" t="str">
-        <f t="shared" si="1"/>
-        <v>{'azure' : 'Application Gateway - Web アプリケーション ファイアウォール','aws':'Web アプリケーション ファイアウォール'},</v>
+        <f t="shared" si="3"/>
+        <v>{'azure' : 'PrivateLink','aws':'ネットワークの分離'},</v>
       </c>
     </row>
     <row r="83" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B83" s="6" t="s">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>188</v>
+        <v>136</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>189</v>
+        <v>137</v>
       </c>
       <c r="E83" t="str">
-        <f t="shared" si="1"/>
-        <v>{'azure' : 'Azure Firewall','aws':'Web アプリケーション ファイアウォール'},</v>
+        <f t="shared" si="3"/>
+        <v>{'azure' : 'Azure Active Directory','aws':'Identity and Access Management (IAM)'},</v>
       </c>
     </row>
     <row r="84" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B84" s="6" t="s">
-        <v>190</v>
+        <v>135</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>191</v>
+        <v>271</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>192</v>
+        <v>138</v>
       </c>
       <c r="E84" t="str">
-        <f t="shared" si="1"/>
-        <v>{'azure' : 'セキュリティ センター','aws':'Inspector'},</v>
+        <f t="shared" si="3"/>
+        <v>{'azure' : 'ロール ベースのアクセス制御','aws':'Identity and Access Management (IAM)'},</v>
       </c>
     </row>
     <row r="85" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="6" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>194</v>
+        <v>272</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
       <c r="E85" t="str">
-        <f t="shared" si="1"/>
-        <v>{'azure' : 'ポータルで使用可能な App Service 証明書','aws':'Certificate Manager'},</v>
+        <f t="shared" si="3"/>
+        <v>{'azure' : 'サブスクリプション管理 + Azure RBAC','aws':'AWS Organizations'},</v>
       </c>
     </row>
     <row r="86" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="6" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>197</v>
+        <v>141</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>198</v>
+        <v>142</v>
       </c>
       <c r="E86" t="str">
-        <f t="shared" si="1"/>
-        <v>{'azure' : 'Azure Advanced Threat Protection','aws':'GuardDuty'},</v>
+        <f t="shared" si="3"/>
+        <v>{'azure' : 'Multi-Factor Authentication','aws':'Multi-Factor Authentication'},</v>
       </c>
     </row>
     <row r="87" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="6" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>201</v>
+        <v>145</v>
       </c>
       <c r="E87" t="str">
-        <f t="shared" si="1"/>
-        <v>{'azure' : 'Service Trust Portal','aws':'AWS Artifact'},</v>
+        <f t="shared" si="3"/>
+        <v>{'azure' : 'Azure Active Directory Domain Services','aws':'AWS Directory Service'},</v>
       </c>
     </row>
     <row r="88" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="6" t="s">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>203</v>
+        <v>146</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>204</v>
+        <v>147</v>
       </c>
       <c r="E88" t="str">
-        <f t="shared" si="1"/>
-        <v>{'azure' : 'Azure DDoS Protection サービス','aws':'AWS Shield'},</v>
+        <f t="shared" si="3"/>
+        <v>{'azure' : 'Azure Active Directory B2C','aws':'Cognito'},</v>
       </c>
     </row>
     <row r="89" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="6" t="s">
-        <v>205</v>
+        <v>139</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>206</v>
+        <v>148</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="E89" t="str">
-        <f t="shared" si="1"/>
-        <v>{'azure' : 'Azure BLOB Storage','aws':'Simple Storage Services (S3)'},</v>
+        <f t="shared" si="3"/>
+        <v>{'azure' : 'Azure Policy','aws':'AWS Organizations'},</v>
       </c>
     </row>
     <row r="90" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="6" t="s">
-        <v>208</v>
+        <v>139</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>209</v>
+        <v>150</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>210</v>
+        <v>151</v>
       </c>
       <c r="E90" t="str">
-        <f t="shared" si="1"/>
-        <v>{'azure' : 'Azure マネージド ディスク','aws':'Elastic Block Store (EBS)'},</v>
+        <f t="shared" si="3"/>
+        <v>{'azure' : '管理グループ','aws':'AWS Organizations'},</v>
       </c>
     </row>
     <row r="91" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B91" s="6" t="s">
-        <v>211</v>
+        <v>152</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>212</v>
+        <v>153</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>213</v>
+        <v>154</v>
       </c>
       <c r="E91" t="str">
-        <f t="shared" si="1"/>
-        <v>{'azure' : 'Azure Files','aws':'Elastic File System'},</v>
+        <f t="shared" si="3"/>
+        <v>{'azure' : 'Azure Storage Service Encryption','aws':'Amazon S3 Key Management Service を使用したサーバー側の暗号化'},</v>
       </c>
     </row>
     <row r="92" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B92" s="6" t="s">
-        <v>214</v>
+      <c r="B92" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>215</v>
+        <v>156</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>216</v>
+        <v>157</v>
       </c>
       <c r="E92" t="str">
-        <f t="shared" si="1"/>
-        <v>{'azure' : 'Azure Storage クール層','aws':'S3 Infrequent Access (IA)'},</v>
+        <f t="shared" si="3"/>
+        <v>{'azure' : 'Key Vault','aws':'キー管理サービス (KMS)、CloudHSM'},</v>
       </c>
     </row>
     <row r="93" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B93" s="6" t="s">
-        <v>217</v>
+        <v>158</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>218</v>
+        <v>159</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>219</v>
+        <v>160</v>
       </c>
       <c r="E93" t="str">
-        <f t="shared" si="1"/>
-        <v>{'azure' : 'Azure Storage アーカイブ アクセス層','aws':'S3 Glacier'},</v>
+        <f t="shared" si="3"/>
+        <v>{'azure' : 'Application Gateway - Web アプリケーション ファイアウォール','aws':'Web アプリケーション ファイアウォール'},</v>
       </c>
     </row>
     <row r="94" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="6" t="s">
-        <v>220</v>
+        <v>158</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>221</v>
+        <v>161</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>222</v>
+        <v>162</v>
       </c>
       <c r="E94" t="str">
-        <f t="shared" si="1"/>
-        <v>{'azure' : 'Azure Backup','aws':'AWS Backup'},</v>
+        <f t="shared" si="3"/>
+        <v>{'azure' : 'Azure Firewall','aws':'Web アプリケーション ファイアウォール'},</v>
       </c>
     </row>
     <row r="95" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B95" s="6" t="s">
-        <v>223</v>
+        <v>163</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>224</v>
+        <v>164</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="E95" t="str">
-        <f t="shared" si="1"/>
-        <v>{'azure' : 'StorSimple','aws':'Storage Gateway'},</v>
+        <f t="shared" si="3"/>
+        <v>{'azure' : 'セキュリティ センター','aws':'Inspector'},</v>
       </c>
     </row>
     <row r="96" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B96" s="6" t="s">
-        <v>226</v>
+        <v>166</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>227</v>
+        <v>167</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>228</v>
+        <v>168</v>
       </c>
       <c r="E96" t="str">
-        <f t="shared" si="1"/>
-        <v>{'azure' : 'Import/Export','aws':'AWS Import/Export ディスク'},</v>
+        <f t="shared" si="3"/>
+        <v>{'azure' : 'ポータルで使用可能な App Service 証明書','aws':'Certificate Manager'},</v>
       </c>
     </row>
     <row r="97" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B97" s="1" t="s">
-        <v>229</v>
+      <c r="B97" s="6" t="s">
+        <v>169</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>230</v>
+        <v>273</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>231</v>
+        <v>170</v>
       </c>
       <c r="E97" t="str">
-        <f t="shared" si="1"/>
-        <v>{'azure' : 'Azure Data Box','aws':'AWS Import/Export Snowball、Snowball Edge、Snowmobile'},</v>
+        <f t="shared" si="3"/>
+        <v>{'azure' : 'Advanced Threat Protection','aws':'GuardDuty'},</v>
       </c>
     </row>
     <row r="98" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="6" t="s">
-        <v>232</v>
+        <v>171</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>233</v>
+        <v>172</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="E98" t="str">
-        <f t="shared" si="1"/>
-        <v>{'azure' : 'App Service','aws':'Elastic Beanstalk'},</v>
+        <f t="shared" si="3"/>
+        <v>{'azure' : 'Service Trust Portal','aws':'AWS Artifact'},</v>
       </c>
     </row>
     <row r="99" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B99" s="6" t="s">
-        <v>235</v>
+        <v>174</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>236</v>
+        <v>274</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>237</v>
+        <v>175</v>
       </c>
       <c r="E99" t="str">
-        <f t="shared" si="1"/>
-        <v>{'azure' : 'API Management','aws':'API Gateway'},</v>
+        <f t="shared" si="3"/>
+        <v>{'azure' : 'DDoS Protection サービス','aws':'AWS Shield'},</v>
       </c>
     </row>
     <row r="100" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B100" s="6" t="s">
-        <v>238</v>
+        <v>176</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>240</v>
+        <v>177</v>
       </c>
       <c r="E100" t="str">
-        <f t="shared" si="1"/>
-        <v>{'azure' : 'Azure Content Delivery Network','aws':'CloudFront'},</v>
+        <f t="shared" si="3"/>
+        <v>{'azure' : 'BLOB Storage','aws':'Simple Storage Services (S3)'},</v>
       </c>
     </row>
     <row r="101" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B101" s="6" t="s">
-        <v>241</v>
+        <v>178</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>243</v>
+        <v>179</v>
       </c>
       <c r="E101" t="str">
-        <f t="shared" si="1"/>
-        <v>{'azure' : 'Azure Front Door','aws':'Global Accelerator'},</v>
+        <f t="shared" si="3"/>
+        <v>{'azure' : 'マネージド ディスク','aws':'Elastic Block Store (EBS)'},</v>
       </c>
     </row>
     <row r="102" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>245</v>
+        <v>180</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="E102" t="str">
-        <f t="shared" si="1"/>
-        <v>{'azure' : 'Logic Apps','aws':'AWS Step Functions'},</v>
+        <f t="shared" si="3"/>
+        <v>{'azure' : 'Azure Files','aws':'Elastic File System'},</v>
       </c>
     </row>
     <row r="103" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B103" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>247</v>
+      <c r="B103" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="E103" t="str">
-        <f t="shared" si="1"/>
-        <v>{'azure' : 'Office 365','aws':'Amazon WorkMail、Amazon WorkDocs'},</v>
+        <f t="shared" si="3"/>
+        <v>{'azure' : 'Storage クール層','aws':'S3 Infrequent Access (IA)'},</v>
       </c>
     </row>
     <row r="104" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B104" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>249</v>
+      <c r="B104" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="E104" t="str">
-        <f t="shared" si="1"/>
-        <v>{'azure' : 'PlayFab','aws':'GameLift、GameSparks'},</v>
+        <f t="shared" si="3"/>
+        <v>{'azure' : 'Storage アーカイブ アクセス層','aws':'S3 Glacier'},</v>
       </c>
     </row>
     <row r="105" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>251</v>
+        <v>187</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="E105" t="str">
-        <f t="shared" si="1"/>
-        <v>{'azure' : 'Media Services','aws':'Elastic Transcoder'},</v>
+        <f t="shared" si="3"/>
+        <v>{'azure' : 'Azure Backup','aws':'AWS Backup'},</v>
       </c>
     </row>
     <row r="106" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>245</v>
+        <v>190</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="E106" t="str">
-        <f t="shared" si="1"/>
-        <v>{'azure' : 'Logic Apps','aws':'Simple Workflow Service (SWF)'},</v>
+        <f t="shared" si="3"/>
+        <v>{'azure' : 'StorSimple','aws':'Storage Gateway'},</v>
       </c>
     </row>
     <row r="107" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B107" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>254</v>
+        <v>193</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="E107" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>{'azure' : 'Import/Export','aws':'AWS Import/Export ディスク'},</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B108" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E108" t="str">
+        <f t="shared" si="3"/>
+        <v>{'azure' : 'Data Box','aws':'AWS Import/Export Snowball、Snowball Edge、Snowmobile'},</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B109" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E109" t="str">
+        <f t="shared" si="3"/>
+        <v>{'azure' : 'App Service','aws':'Elastic Beanstalk'},</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B110" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E110" t="str">
+        <f t="shared" si="3"/>
+        <v>{'azure' : 'API Management','aws':'API Gateway'},</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B111" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E111" t="str">
+        <f t="shared" si="3"/>
+        <v>{'azure' : 'Content Delivery Network','aws':'CloudFront'},</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B112" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E112" t="str">
+        <f t="shared" si="3"/>
+        <v>{'azure' : 'Front Door','aws':'Global Accelerator'},</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B113" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="E113" t="str">
+        <f t="shared" si="3"/>
+        <v>{'azure' : 'Logic Apps','aws':'AWS Step Functions'},</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B114" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E114" t="str">
+        <f t="shared" si="3"/>
+        <v>{'azure' : 'Office 365','aws':'Amazon WorkMail、Amazon WorkDocs'},</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B115" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E115" t="str">
+        <f t="shared" si="3"/>
+        <v>{'azure' : 'PlayFab','aws':'GameLift、GameSparks'},</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B116" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E116" t="str">
+        <f t="shared" si="3"/>
+        <v>{'azure' : 'Media Services','aws':'Elastic Transcoder'},</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B117" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="E117" t="str">
+        <f t="shared" si="3"/>
+        <v>{'azure' : 'Logic Apps','aws':'Simple Workflow Service (SWF)'},</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B118" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E118" t="str">
+        <f t="shared" si="3"/>
         <v>{'azure' : 'Azure Stack','aws':'Outposts'},</v>
       </c>
     </row>
-    <row r="108" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E108" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="109" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B119" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E119" t="str">
+        <f t="shared" si="3"/>
+        <v>{'azure' : 'Azure DDoS Protection','aws':'AWS Shield'},</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B120" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="E120" t="str">
+        <f t="shared" si="3"/>
+        <v>{'azure' : 'Network Watcher','aws':'AWS Transit Gateway Network Manager'},</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B121" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="E121" t="str">
+        <f t="shared" si="3"/>
+        <v>{'azure' : 'Notification Hubs','aws':'Amazon Pinpoint'},</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E122" t="s">
+        <v>230</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B2:D113" xr:uid="{386CAA26-CB86-4F1F-8EC2-2B44B1DC4ADC}"/>
+  <autoFilter ref="B2:D124" xr:uid="{386CAA26-CB86-4F1F-8EC2-2B44B1DC4ADC}"/>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{AA888088-D531-4E8E-84FD-736DE310733B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>